--- a/kota-kab jawa barat.xlsx
+++ b/kota-kab jawa barat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travlendar Database\data kota\Timeline-dan-document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="228">
   <si>
     <t>&lt;link href='https://www.blogger.com/dyn-css/authorization.css?targetBlogID=7697872286098350133&amp;amp;zx=9c7cc169-5982-4b0f-aa02-c7881f75ecba' rel='stylesheet'/&gt;</t>
   </si>
@@ -702,6 +702,15 @@
   </si>
   <si>
     <t>69,3</t>
+  </si>
+  <si>
+    <t>94,8</t>
+  </si>
+  <si>
+    <t>78,7</t>
+  </si>
+  <si>
+    <t>71,4</t>
   </si>
 </sst>
 </file>
@@ -848,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
@@ -898,6 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2530,7 +2540,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,49 +3346,113 @@
       <c r="A15" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="19">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
+      <c r="B15">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15">
+        <v>166</v>
+      </c>
+      <c r="E15">
+        <v>184</v>
+      </c>
+      <c r="F15">
+        <v>255</v>
+      </c>
+      <c r="G15">
+        <v>119</v>
+      </c>
+      <c r="H15">
+        <v>255</v>
+      </c>
+      <c r="I15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15">
+        <v>74</v>
+      </c>
+      <c r="K15">
+        <v>164</v>
+      </c>
+      <c r="L15">
+        <v>111</v>
+      </c>
+      <c r="M15">
+        <v>244</v>
+      </c>
+      <c r="N15" t="s">
+        <v>227</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>277</v>
+      </c>
+      <c r="Q15">
+        <v>113</v>
+      </c>
+      <c r="R15">
+        <v>184</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
+      <c r="B16">
+        <v>167</v>
+      </c>
+      <c r="C16">
+        <v>193</v>
+      </c>
+      <c r="D16">
+        <v>139</v>
+      </c>
+      <c r="E16">
+        <v>282</v>
+      </c>
+      <c r="F16">
+        <v>119</v>
+      </c>
+      <c r="G16">
+        <v>358</v>
+      </c>
+      <c r="H16">
+        <v>214</v>
+      </c>
+      <c r="I16">
+        <v>360</v>
+      </c>
+      <c r="J16">
+        <v>222</v>
+      </c>
+      <c r="K16">
+        <v>403</v>
+      </c>
+      <c r="L16">
+        <v>350</v>
+      </c>
+      <c r="M16">
+        <v>329</v>
+      </c>
+      <c r="N16">
+        <v>170</v>
+      </c>
+      <c r="O16">
+        <v>277</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>218</v>
+      </c>
+      <c r="R16">
+        <v>273</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
